--- a/MasterFile.xlsx
+++ b/MasterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/ladderzz/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{949B460C-C194-49EA-9BF0-2ADB0729F3C3}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D70D3847-C92D-4335-8568-1FAED7B7FC21}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Grade</t>
   </si>
@@ -42,7 +42,16 @@
     <t>Subjects</t>
   </si>
   <si>
-    <t>Contents</t>
+    <t>Quiz,Woksheet</t>
+  </si>
+  <si>
+    <t>Quiz</t>
+  </si>
+  <si>
+    <t>Worksheet</t>
+  </si>
+  <si>
+    <t>Con</t>
   </si>
 </sst>
 </file>
@@ -367,7 +376,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -380,7 +389,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -390,6 +399,9 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -398,6 +410,9 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -405,6 +420,9 @@
       </c>
       <c r="B4" t="s">
         <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/MasterFile.xlsx
+++ b/MasterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/ladderzz/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D70D3847-C92D-4335-8568-1FAED7B7FC21}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{951DF39F-4769-4ABB-A86D-833C26597DA6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Grade</t>
   </si>
@@ -52,6 +52,36 @@
   </si>
   <si>
     <t>Con</t>
+  </si>
+  <si>
+    <t>Quiz,Worksheet,Flashcards</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Lesson</t>
+  </si>
+  <si>
+    <t>Lesson 1</t>
+  </si>
+  <si>
+    <t>Addition</t>
+  </si>
+  <si>
+    <t>Plants</t>
+  </si>
+  <si>
+    <t>Tenses</t>
+  </si>
+  <si>
+    <t>Ratio &amp; Propotion</t>
+  </si>
+  <si>
+    <t>Forest Our Life Line</t>
+  </si>
+  <si>
+    <t>Market</t>
   </si>
 </sst>
 </file>
@@ -373,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,10 +419,13 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -400,10 +433,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -411,10 +447,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -422,7 +461,66 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/MasterFile.xlsx
+++ b/MasterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/ladderzz/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{951DF39F-4769-4ABB-A86D-833C26597DA6}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C5D42B1-3F35-409E-A19C-19EBADC30121}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Grade</t>
   </si>
@@ -82,6 +82,27 @@
   </si>
   <si>
     <t>Market</t>
+  </si>
+  <si>
+    <t>Flashcards</t>
+  </si>
+  <si>
+    <t>dsd</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>sdds</t>
+  </si>
+  <si>
+    <t>dsds</t>
+  </si>
+  <si>
+    <t>dsdsf</t>
+  </si>
+  <si>
+    <t>fdfdfd</t>
   </si>
 </sst>
 </file>
@@ -403,15 +424,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,8 +448,17 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -438,8 +471,11 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -452,8 +488,11 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -466,8 +505,11 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -480,8 +522,11 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7</v>
       </c>
@@ -494,8 +539,11 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -509,7 +557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -521,6 +569,15 @@
       </c>
       <c r="D8" t="s">
         <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/MasterFile.xlsx
+++ b/MasterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/ladderzz/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C5D42B1-3F35-409E-A19C-19EBADC30121}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6687FC0E-CEB6-444B-8D4E-C8D5AE4D6135}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>Market</t>
   </si>
   <si>
-    <t>Flashcards</t>
-  </si>
-  <si>
     <t>dsd</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>fdfdfd</t>
+  </si>
+  <si>
+    <t>Flashcard</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,7 +455,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -472,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -489,7 +489,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -523,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -540,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -571,13 +571,13 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/MasterFile.xlsx
+++ b/MasterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/ladderzz/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6687FC0E-CEB6-444B-8D4E-C8D5AE4D6135}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCB8D940-0E00-4D0D-BD5A-527D4A3B5D23}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Grade</t>
   </si>
@@ -84,25 +84,16 @@
     <t>Market</t>
   </si>
   <si>
-    <t>dsd</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>sdds</t>
-  </si>
-  <si>
-    <t>dsds</t>
-  </si>
-  <si>
-    <t>dsdsf</t>
-  </si>
-  <si>
     <t>fdfdfd</t>
   </si>
   <si>
     <t>Flashcard</t>
+  </si>
+  <si>
+    <t>https://quizizz.com/join?gc=08539312</t>
+  </si>
+  <si>
+    <t>/forest.pdf</t>
   </si>
 </sst>
 </file>
@@ -427,7 +418,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E2" sqref="E2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -471,9 +462,6 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -488,9 +476,6 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -505,9 +490,6 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -522,9 +504,6 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -539,9 +518,6 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -571,13 +547,13 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/MasterFile.xlsx
+++ b/MasterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/ladderzz/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCB8D940-0E00-4D0D-BD5A-527D4A3B5D23}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BEEC1F8-1AF2-43FF-9BD4-9E5DD259DFEF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Grade</t>
   </si>
@@ -42,21 +42,12 @@
     <t>Subjects</t>
   </si>
   <si>
-    <t>Quiz,Woksheet</t>
-  </si>
-  <si>
     <t>Quiz</t>
   </si>
   <si>
     <t>Worksheet</t>
   </si>
   <si>
-    <t>Con</t>
-  </si>
-  <si>
-    <t>Quiz,Worksheet,Flashcards</t>
-  </si>
-  <si>
     <t>Social</t>
   </si>
   <si>
@@ -84,9 +75,6 @@
     <t>Market</t>
   </si>
   <si>
-    <t>fdfdfd</t>
-  </si>
-  <si>
     <t>Flashcard</t>
   </si>
   <si>
@@ -94,6 +82,12 @@
   </si>
   <si>
     <t>/forest.pdf</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>/Light.pdf</t>
   </si>
 </sst>
 </file>
@@ -415,18 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,22 +425,19 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -457,13 +445,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -471,13 +456,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -485,13 +467,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -499,13 +478,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7</v>
       </c>
@@ -513,13 +489,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -527,33 +500,38 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/MasterFile.xlsx
+++ b/MasterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/ladderzz/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BEEC1F8-1AF2-43FF-9BD4-9E5DD259DFEF}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1182C821-7718-4663-936F-91C56813DB8D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Grade</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>/Light.pdf</t>
+  </si>
+  <si>
+    <t>/flashcard.html</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,14 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="29.88671875" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -522,6 +529,9 @@
       <c r="E8" t="s">
         <v>18</v>
       </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">

--- a/MasterFile.xlsx
+++ b/MasterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/ladderzz/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1182C821-7718-4663-936F-91C56813DB8D}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{508F3CC7-BD0D-4CA7-9E9E-89CCF16AE1BE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Grade</t>
   </si>
@@ -415,7 +415,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,6 +454,9 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">

--- a/MasterFile.xlsx
+++ b/MasterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/ladderzz/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{508F3CC7-BD0D-4CA7-9E9E-89CCF16AE1BE}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5B67B19-EC33-4926-962F-F8193F8248A6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Grade</t>
   </si>
@@ -415,7 +415,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,9 +454,6 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -512,7 +509,7 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>20</v>
       </c>
     </row>

--- a/MasterFile.xlsx
+++ b/MasterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/ladderzz/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5B67B19-EC33-4926-962F-F8193F8248A6}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1182C821-7718-4663-936F-91C56813DB8D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +509,7 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
     </row>

--- a/MasterFile.xlsx
+++ b/MasterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/ladderzz/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1182C821-7718-4663-936F-91C56813DB8D}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D765F48B-80FC-48F5-80F6-C14BFC45B009}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>https://quizizz.com/join?gc=08539312</t>
   </si>
   <si>
-    <t>/forest.pdf</t>
-  </si>
-  <si>
     <t>Light</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>/flashcard.html</t>
+  </si>
+  <si>
+    <t>/pdfs/grade7/science/forest.pdf</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -527,10 +527,10 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">

--- a/MasterFile.xlsx
+++ b/MasterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/ladderzz/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D765F48B-80FC-48F5-80F6-C14BFC45B009}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6F7C7C7-AE56-437A-B0F8-38D0EE6FF3B1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Grade</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Subjects</t>
   </si>
   <si>
-    <t>Quiz</t>
-  </si>
-  <si>
-    <t>Worksheet</t>
-  </si>
-  <si>
     <t>Social</t>
   </si>
   <si>
@@ -91,6 +85,15 @@
   </si>
   <si>
     <t>/pdfs/grade7/science/forest.pdf</t>
+  </si>
+  <si>
+    <t>Button_Quiz</t>
+  </si>
+  <si>
+    <t>Button_Worksheet</t>
+  </si>
+  <si>
+    <t>Button_FC</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,7 +427,7 @@
     <col min="5" max="5" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,19 +435,22 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -452,10 +458,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -463,10 +469,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -474,10 +480,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -485,10 +491,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7</v>
       </c>
@@ -496,10 +502,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -507,13 +513,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -521,27 +527,27 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/MasterFile.xlsx
+++ b/MasterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/ladderzz/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6F7C7C7-AE56-437A-B0F8-38D0EE6FF3B1}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F1A0A75-F0ED-4026-AF95-28CDA95CED88}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Grade</t>
   </si>
@@ -418,7 +418,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,6 +549,9 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MasterFile.xlsx
+++ b/MasterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/ladderzz/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F1A0A75-F0ED-4026-AF95-28CDA95CED88}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42DF25EC-8622-4CB7-B32A-6CC6E210694D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Grade</t>
   </si>
@@ -66,12 +66,6 @@
     <t>Forest Our Life Line</t>
   </si>
   <si>
-    <t>Market</t>
-  </si>
-  <si>
-    <t>Flashcard</t>
-  </si>
-  <si>
     <t>https://quizizz.com/join?gc=08539312</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>/Light.pdf</t>
   </si>
   <si>
-    <t>/flashcard.html</t>
-  </si>
-  <si>
     <t>/pdfs/grade7/science/forest.pdf</t>
   </si>
   <si>
@@ -93,7 +84,16 @@
     <t>Button_Worksheet</t>
   </si>
   <si>
-    <t>Button_FC</t>
+    <t>Button_Flashcard</t>
+  </si>
+  <si>
+    <t>Button_Notes</t>
+  </si>
+  <si>
+    <t>Market Around Us</t>
+  </si>
+  <si>
+    <t>/FlashCardTest.html</t>
   </si>
 </sst>
 </file>
@@ -418,13 +418,15 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="29.88671875" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="66.88671875" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -438,16 +440,16 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -513,10 +515,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -530,13 +532,13 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -547,10 +549,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/MasterFile.xlsx
+++ b/MasterFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd35aff9e777a10/Desktop/ladderzz/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42DF25EC-8622-4CB7-B32A-6CC6E210694D}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="11_F25DC773A252ABDACC10485039DF5FA25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FED6FF58-0DC8-408E-8EED-480566E951C0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
     <t>Market Around Us</t>
   </si>
   <si>
-    <t>/FlashCardTest.html</t>
+    <t>Forest.xlsx</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
